--- a/PythonResources/Data/Consumption/Sympheny/post_1692_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1692_coo.xlsx
@@ -375,7 +375,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5000612518470803</v>
+        <v>0.5000612518470802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2455296409117792</v>
+        <v>0.2455296409117791</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3.235328424198056</v>
+        <v>3.235328424198055</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.2525111791947698</v>
+        <v>0.2525111791947697</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>5.027721589546977</v>
+        <v>5.027721589546976</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1.437771347147921</v>
+        <v>1.43777134714792</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>9.829368179870592</v>
+        <v>9.82936817987059</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>7.371264150202425</v>
+        <v>7.371264150202424</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4.917907871360571</v>
+        <v>4.91790787136057</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1.27978554233675</v>
+        <v>1.279785542336749</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.2289544221782095</v>
+        <v>0.2289544221782094</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0.2812406400437028</v>
+        <v>0.2812406400437027</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>0.2507416162633326</v>
+        <v>0.2507416162633325</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>3.880055402149149</v>
+        <v>3.880055402149148</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>15.33825380069177</v>
+        <v>15.33825380069176</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>9.019056065075841</v>
+        <v>9.019056065075835</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>33.79841753361965</v>
+        <v>33.79841753361964</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>4.83663927233978</v>
+        <v>4.836639272339779</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>7.835371447026532</v>
+        <v>7.835371447026531</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>47.56865335616162</v>
+        <v>47.56865335616161</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>18.8648948373192</v>
+        <v>18.86489483731919</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>8.705763124746861</v>
+        <v>8.705763124746859</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>7.342132888959488</v>
+        <v>7.342132888959487</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>0.1864843256816393</v>
+        <v>0.1864843256816392</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>0.1006192004904837</v>
+        <v>0.1006192004904836</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>5.888647072718546</v>
+        <v>5.888647072718545</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>23.04549458961556</v>
+        <v>23.04549458961555</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>6.972453080792066</v>
+        <v>6.972453080792065</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>4.123216442926467</v>
+        <v>4.123216442926466</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>469</v>
       </c>
       <c r="B469">
-        <v>5.883899321892232</v>
+        <v>5.883899321892231</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>5.857259164477915</v>
+        <v>5.857259164477914</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>9.254186959393836</v>
+        <v>9.254186959393834</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>0.0280916796545982</v>
+        <v>0.0280916796545981</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>0.050705392682954</v>
+        <v>0.0507053926829539</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>0.1808670330836173</v>
+        <v>0.1808670330836172</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>0.1099872162412936</v>
+        <v>0.1099872162412935</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>1.975691515769274</v>
+        <v>1.975691515769273</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>6.831603139611424</v>
+        <v>6.831603139611423</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>0.3471397145839769</v>
+        <v>0.3471397145839768</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>16.47780192031868</v>
+        <v>16.47780192031867</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>2.972824694869089</v>
+        <v>2.972824694869088</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>0.5197204571204833</v>
+        <v>0.5197204571204832</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>5.978473346068248</v>
+        <v>5.978473346068247</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>0.2568084798346611</v>
+        <v>0.256808479834661</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>982</v>
       </c>
       <c r="B982">
-        <v>0.3136329027338253</v>
+        <v>0.3136329027338252</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>0.1666724303970937</v>
+        <v>0.1666724303970936</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>0.2393845273731281</v>
+        <v>0.239384527373128</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>19.99685241704478</v>
+        <v>19.99685241704477</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>8.283447758035862</v>
+        <v>8.283447758035861</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>0.6601014846392678</v>
+        <v>0.6601014846392677</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>7.949170931338732</v>
+        <v>7.949170931338731</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>0.1951343173877289</v>
+        <v>0.1951343173877288</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>1.225749104228371</v>
+        <v>1.22574910422837</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>0.1591988258401907</v>
+        <v>0.1591988258401906</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>0.1430711265826569</v>
+        <v>0.1430711265826568</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>0.7768580557315611</v>
+        <v>0.776858055731561</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>5.156848689181167</v>
+        <v>5.156848689181166</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>0.5980378307819546</v>
+        <v>0.5980378307819545</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>0.6860910243477558</v>
+        <v>0.6860910243477557</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>5.03762739065373</v>
+        <v>5.037627390653729</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>1247</v>
       </c>
       <c r="B1247">
-        <v>2.038892285256593</v>
+        <v>2.038892285256592</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>0.60012742728761</v>
+        <v>0.6001274272876099</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>0.6153143685110409</v>
+        <v>0.6153143685110408</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>0.2383025090983904</v>
+        <v>0.2383025090983903</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>37.14851257655749</v>
+        <v>37.14851257655748</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>4.715923311515172</v>
+        <v>4.715923311515171</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>0.3999071550949521</v>
+        <v>0.399907155094952</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>0.8406713436896823</v>
+        <v>0.8406713436896822</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>0.4104782274594668</v>
+        <v>0.4104782274594667</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>0.3244355012188825</v>
+        <v>0.3244355012188824</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>3.774754977958128</v>
+        <v>3.774754977958127</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>1.181879300451154</v>
+        <v>1.181879300451153</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>0.0437991736568994</v>
+        <v>0.0437991736568993</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>0.2093476766207268</v>
+        <v>0.2093476766207267</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>0.1480978810377763</v>
+        <v>0.1480978810377762</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1497</v>
       </c>
       <c r="B1497">
-        <v>0.8542141563862231</v>
+        <v>0.854214156386223</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>8.011477834158134</v>
+        <v>8.011477834158132</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>6.125419164853046</v>
+        <v>6.125419164853045</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>3.062709582426523</v>
+        <v>3.062709582426522</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>7.441777042104345</v>
+        <v>7.441777042104344</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>0.3953733461268611</v>
+        <v>0.395373346126861</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>0.2695465194590378</v>
+        <v>0.2695465194590377</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>5.266193493705714</v>
+        <v>5.266193493705713</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>0.2968751007431696</v>
+        <v>0.2968751007431695</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13535,7 +13535,7 @@
         <v>1649</v>
       </c>
       <c r="B1649">
-        <v>6.478833530374763</v>
+        <v>6.478833530374762</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>0.0930866886548098</v>
+        <v>0.09308668865480969</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>0.1237117329818044</v>
+        <v>0.1237117329818043</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13967,7 +13967,7 @@
         <v>1703</v>
       </c>
       <c r="B1703">
-        <v>0.3228236105062451</v>
+        <v>0.322823610506245</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>0.1439559080483755</v>
+        <v>0.1439559080483754</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>4.861491696418262</v>
+        <v>4.861491696418261</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>5.293331871885754</v>
+        <v>5.293331871885753</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>2.90042442547819</v>
+        <v>2.900424425478189</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>5.011749217939934</v>
+        <v>5.011749217939933</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>0.1099757864707858</v>
+        <v>0.1099757864707857</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>3.627486781030802</v>
+        <v>3.627486781030801</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>0.3255579632969554</v>
+        <v>0.3255579632969553</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>0.2243816347619765</v>
+        <v>0.2243816347619764</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>0.1057429614594</v>
+        <v>0.1057429614593999</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>0.71045695050206</v>
+        <v>0.7104569505020599</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>27.21894340856858</v>
+        <v>27.21894340856857</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>1.143425449468399</v>
+        <v>1.143425449468398</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>0.6035123977841486</v>
+        <v>0.6035123977841484</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15543,7 +15543,7 @@
         <v>1900</v>
       </c>
       <c r="B1900">
-        <v>0.1610618784329609</v>
+        <v>0.1610618784329608</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>1.827646680589495</v>
+        <v>1.827646680589494</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>5.409241467676316</v>
+        <v>5.409241467676315</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>0.3131317512577144</v>
+        <v>0.3131317512577143</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>5.153155994094033</v>
+        <v>5.153155994094032</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>0.2740401776948322</v>
+        <v>0.2740401776948321</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16239,7 +16239,7 @@
         <v>1987</v>
       </c>
       <c r="B1987">
-        <v>0.1805294152470794</v>
+        <v>0.1805294152470793</v>
       </c>
     </row>
     <row r="1988" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>0.1087035650919569</v>
+        <v>0.1087035650919568</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>0.08999947833355119</v>
+        <v>0.0899994783335511</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16639,7 +16639,7 @@
         <v>2037</v>
       </c>
       <c r="B2037">
-        <v>0.3131317512577144</v>
+        <v>0.3131317512577143</v>
       </c>
     </row>
     <row r="2038" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>0.1211983557542447</v>
+        <v>0.1211983557542446</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>0.1434887528127493</v>
+        <v>0.1434887528127492</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>0.1458277527723055</v>
+        <v>0.1458277527723054</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>0.2211018767683174</v>
+        <v>0.2211018767683173</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>0.1305839557673743</v>
+        <v>0.1305839557673742</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>0.29200601850685</v>
+        <v>0.2920060185068499</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>0.1390671900524656</v>
+        <v>0.1390671900524655</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>0.5161068912137889</v>
+        <v>0.5161068912137888</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17367,7 +17367,7 @@
         <v>2128</v>
       </c>
       <c r="B2128">
-        <v>26.28882385316907</v>
+        <v>26.28882385316906</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17391,7 +17391,7 @@
         <v>2131</v>
       </c>
       <c r="B2131">
-        <v>26.97370156341677</v>
+        <v>26.97370156341676</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>0.2069444941037038</v>
+        <v>0.2069444941037037</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>0.1497408372805118</v>
+        <v>0.1497408372805117</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>0.5318741130937693</v>
+        <v>0.5318741130937692</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>0.6548555130472297</v>
+        <v>0.6548555130472296</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>16.91708610016817</v>
+        <v>16.91708610016816</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>45.46440329857316</v>
+        <v>45.46440329857315</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>0.2278829544608636</v>
+        <v>0.2278829544608635</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>4.313067861771287</v>
+        <v>4.313067861771286</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>34.39716166560478</v>
+        <v>34.39716166560477</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>40.72075546680063</v>
+        <v>40.72075546680062</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>40.90392486596397</v>
+        <v>40.90392486596396</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>75.97661527568314</v>
+        <v>75.97661527568313</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>0.5271292929778422</v>
+        <v>0.5271292929778421</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>26.62629515418761</v>
+        <v>26.6262951541876</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>0.6052122098083844</v>
+        <v>0.6052122098083843</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>0.7078046576021749</v>
+        <v>0.7078046576021748</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18671,7 +18671,7 @@
         <v>2291</v>
       </c>
       <c r="B2291">
-        <v>0.6020206661973623</v>
+        <v>0.6020206661973622</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>2.155470083015303</v>
+        <v>2.155470083015302</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18735,7 +18735,7 @@
         <v>2299</v>
       </c>
       <c r="B2299">
-        <v>28.93938763392614</v>
+        <v>28.93938763392613</v>
       </c>
     </row>
     <row r="2300" spans="1:2">
@@ -18775,7 +18775,7 @@
         <v>2304</v>
       </c>
       <c r="B2304">
-        <v>7.044108949744765</v>
+        <v>7.044108949744764</v>
       </c>
     </row>
     <row r="2305" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>5.037246398303471</v>
+        <v>5.03724639830347</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>0.5342860877419522</v>
+        <v>0.5342860877419521</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>45.17396989925977</v>
+        <v>45.17396989925976</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -18919,7 +18919,7 @@
         <v>2322</v>
       </c>
       <c r="B2322">
-        <v>64.00495641740585</v>
+        <v>64.00495641740584</v>
       </c>
     </row>
     <row r="2323" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>0.7835371447026531</v>
+        <v>0.783537144702653</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19143,7 +19143,7 @@
         <v>2350</v>
       </c>
       <c r="B2350">
-        <v>4.891355635257853</v>
+        <v>4.891355635257852</v>
       </c>
     </row>
     <row r="2351" spans="1:2">
@@ -19255,7 +19255,7 @@
         <v>2364</v>
       </c>
       <c r="B2364">
-        <v>3.327206194818387</v>
+        <v>3.327206194818386</v>
       </c>
     </row>
     <row r="2365" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>6.057749062026142</v>
+        <v>6.057749062026141</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19543,7 +19543,7 @@
         <v>2400</v>
       </c>
       <c r="B2400">
-        <v>0.1750305233486766</v>
+        <v>0.1750305233486765</v>
       </c>
     </row>
     <row r="2401" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>2.835661587354806</v>
+        <v>2.835661587354805</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>9.499311576130186</v>
+        <v>9.499311576130184</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>0.8212465952472084</v>
+        <v>0.8212465952472083</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>0.1694944114283638</v>
+        <v>0.1694944114283637</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>8.047173886667085</v>
+        <v>8.047173886667084</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>0.5377501874189293</v>
+        <v>0.5377501874189292</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20039,7 +20039,7 @@
         <v>2462</v>
       </c>
       <c r="B2462">
-        <v>32.59594706199215</v>
+        <v>32.59594706199214</v>
       </c>
     </row>
     <row r="2463" spans="1:2">
@@ -20271,7 +20271,7 @@
         <v>2491</v>
       </c>
       <c r="B2491">
-        <v>22.71077815636044</v>
+        <v>22.71077815636043</v>
       </c>
     </row>
     <row r="2492" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>3.82144119441688</v>
+        <v>3.821441194416879</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>7.20427227237319</v>
+        <v>7.204272272373189</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20455,7 +20455,7 @@
         <v>2514</v>
       </c>
       <c r="B2514">
-        <v>47.20934826276281</v>
+        <v>47.2093482627628</v>
       </c>
     </row>
     <row r="2515" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>4.364648364575683</v>
+        <v>4.364648364575682</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>0.5354466490550511</v>
+        <v>0.535446649055051</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>35.09291231138681</v>
+        <v>35.0929123113868</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20647,7 +20647,7 @@
         <v>2538</v>
       </c>
       <c r="B2538">
-        <v>60.98485936400069</v>
+        <v>60.98485936400068</v>
       </c>
     </row>
     <row r="2539" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>0.990588902806507</v>
+        <v>0.9905889028065068</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>0.5830794849686796</v>
+        <v>0.5830794849686795</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>14.09794785797309</v>
+        <v>14.09794785797308</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21215,7 +21215,7 @@
         <v>2609</v>
       </c>
       <c r="B2609">
-        <v>9.707743698826134</v>
+        <v>9.707743698826132</v>
       </c>
     </row>
     <row r="2610" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>6.958444285144054</v>
+        <v>6.958444285144053</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>10.5286063710127</v>
+        <v>10.52860637101269</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21431,7 +21431,7 @@
         <v>2636</v>
       </c>
       <c r="B2636">
-        <v>18.71320126770809</v>
+        <v>18.71320126770808</v>
       </c>
     </row>
     <row r="2637" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>2.899653648646511</v>
+        <v>2.89965364864651</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>1.733128339910825</v>
+        <v>1.733128339910824</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>0.8362723473993756</v>
+        <v>0.8362723473993755</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>0.2915913229871442</v>
+        <v>0.2915913229871441</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>0.2667201423621878</v>
+        <v>0.2667201423621877</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21751,7 +21751,7 @@
         <v>2676</v>
       </c>
       <c r="B2676">
-        <v>9.243226102547904</v>
+        <v>9.243226102547901</v>
       </c>
     </row>
     <row r="2677" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>0.3161562443766995</v>
+        <v>0.3161562443766994</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>0.7375748137093944</v>
+        <v>0.7375748137093943</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22079,7 +22079,7 @@
         <v>2717</v>
       </c>
       <c r="B2717">
-        <v>0.2516677207455024</v>
+        <v>0.2516677207455023</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -22415,7 +22415,7 @@
         <v>2759</v>
       </c>
       <c r="B2759">
-        <v>3.835801675311286</v>
+        <v>3.835801675311285</v>
       </c>
     </row>
     <row r="2760" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>7.912273287571268</v>
+        <v>7.912273287571267</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22519,7 +22519,7 @@
         <v>2772</v>
       </c>
       <c r="B2772">
-        <v>20.22796823813312</v>
+        <v>20.22796823813311</v>
       </c>
     </row>
     <row r="2773" spans="1:2">
@@ -22615,7 +22615,7 @@
         <v>2784</v>
       </c>
       <c r="B2784">
-        <v>2.368761323532257</v>
+        <v>2.368761323532256</v>
       </c>
     </row>
     <row r="2785" spans="1:2">
@@ -22623,7 +22623,7 @@
         <v>2785</v>
       </c>
       <c r="B2785">
-        <v>1.350354117736015</v>
+        <v>1.350354117736014</v>
       </c>
     </row>
     <row r="2786" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>1.467667523801765</v>
+        <v>1.467667523801764</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>4.057304766331531</v>
+        <v>4.05730476633153</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>7.090267638333927</v>
+        <v>7.090267638333926</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>7.115852740009062</v>
+        <v>7.115852740009061</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22847,7 +22847,7 @@
         <v>2813</v>
       </c>
       <c r="B2813">
-        <v>0.6434169504082773</v>
+        <v>0.6434169504082772</v>
       </c>
     </row>
     <row r="2814" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>0.3845004105925252</v>
+        <v>0.3845004105925251</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>0.7733441339780116</v>
+        <v>0.7733441339780115</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>0.5703045183934315</v>
+        <v>0.5703045183934314</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>63.26700354205658</v>
+        <v>63.26700354205657</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23239,7 +23239,7 @@
         <v>2862</v>
       </c>
       <c r="B2862">
-        <v>0.4506025833625916</v>
+        <v>0.4506025833625915</v>
       </c>
     </row>
     <row r="2863" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>5.970589735128257</v>
+        <v>5.970589735128256</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>69.50502059996332</v>
+        <v>69.5050205999633</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>41.42119524920124</v>
+        <v>41.42119524920123</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>37.13092831423781</v>
+        <v>37.1309283142378</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>35.72184276035406</v>
+        <v>35.72184276035405</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23559,7 +23559,7 @@
         <v>2902</v>
       </c>
       <c r="B2902">
-        <v>24.31329059576067</v>
+        <v>24.31329059576066</v>
       </c>
     </row>
     <row r="2903" spans="1:2">
@@ -23631,7 +23631,7 @@
         <v>2911</v>
       </c>
       <c r="B2911">
-        <v>0.8544456825067656</v>
+        <v>0.8544456825067654</v>
       </c>
     </row>
     <row r="2912" spans="1:2">
@@ -23751,7 +23751,7 @@
         <v>2926</v>
       </c>
       <c r="B2926">
-        <v>38.12971441399567</v>
+        <v>38.12971441399566</v>
       </c>
     </row>
     <row r="2927" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>21.20105200780038</v>
+        <v>21.20105200780037</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>0.4707424251393993</v>
+        <v>0.4707424251393992</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24055,7 +24055,7 @@
         <v>2964</v>
       </c>
       <c r="B2964">
-        <v>15.96973396769537</v>
+        <v>15.96973396769536</v>
       </c>
     </row>
     <row r="2965" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>6.310405604456087</v>
+        <v>6.310405604456086</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24223,7 +24223,7 @@
         <v>2985</v>
       </c>
       <c r="B2985">
-        <v>5.692055019984514</v>
+        <v>5.692055019984513</v>
       </c>
     </row>
     <row r="2986" spans="1:2">
@@ -24287,7 +24287,7 @@
         <v>2993</v>
       </c>
       <c r="B2993">
-        <v>36.00465631266226</v>
+        <v>36.00465631266225</v>
       </c>
     </row>
     <row r="2994" spans="1:2">
@@ -24383,7 +24383,7 @@
         <v>3005</v>
       </c>
       <c r="B3005">
-        <v>0.6910146177972665</v>
+        <v>0.6910146177972664</v>
       </c>
     </row>
     <row r="3006" spans="1:2">
@@ -24415,7 +24415,7 @@
         <v>3009</v>
       </c>
       <c r="B3009">
-        <v>9.139420340654054</v>
+        <v>9.139420340654052</v>
       </c>
     </row>
     <row r="3010" spans="1:2">
@@ -24463,7 +24463,7 @@
         <v>3015</v>
       </c>
       <c r="B3015">
-        <v>38.62617675348799</v>
+        <v>38.62617675348798</v>
       </c>
     </row>
     <row r="3016" spans="1:2">
@@ -24775,7 +24775,7 @@
         <v>3054</v>
       </c>
       <c r="B3054">
-        <v>6.612913530562328</v>
+        <v>6.612913530562327</v>
       </c>
     </row>
     <row r="3055" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>57.05389752243606</v>
+        <v>57.05389752243605</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>38.44271428328599</v>
+        <v>38.44271428328598</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25095,7 +25095,7 @@
         <v>3094</v>
       </c>
       <c r="B3094">
-        <v>22.61538353327617</v>
+        <v>22.61538353327616</v>
       </c>
     </row>
     <row r="3095" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>74.48312526266493</v>
+        <v>74.48312526266491</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>28.31930793032647</v>
+        <v>28.31930793032646</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25295,7 +25295,7 @@
         <v>3119</v>
       </c>
       <c r="B3119">
-        <v>20.6569656245256</v>
+        <v>20.65696562452559</v>
       </c>
     </row>
     <row r="3120" spans="1:2">
@@ -25303,7 +25303,7 @@
         <v>3120</v>
       </c>
       <c r="B3120">
-        <v>14.32153175336783</v>
+        <v>14.32153175336782</v>
       </c>
     </row>
     <row r="3121" spans="1:2">
@@ -25407,7 +25407,7 @@
         <v>3133</v>
       </c>
       <c r="B3133">
-        <v>33.5387565933657</v>
+        <v>33.53875659336569</v>
       </c>
     </row>
     <row r="3134" spans="1:2">
@@ -25431,7 +25431,7 @@
         <v>3136</v>
       </c>
       <c r="B3136">
-        <v>42.5269522780705</v>
+        <v>42.52695227807049</v>
       </c>
     </row>
     <row r="3137" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>71.14621841646685</v>
+        <v>71.14621841646684</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>42.04514349051125</v>
+        <v>42.04514349051124</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>80.51101038585148</v>
+        <v>80.51101038585146</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>4.113691634169974</v>
+        <v>4.113691634169973</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>47.63986961855633</v>
+        <v>47.63986961855632</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>17.06857452005222</v>
+        <v>17.06857452005221</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>60.06461630260406</v>
+        <v>60.06461630260405</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>16.40092938687781</v>
+        <v>16.4009293868778</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>50.1087000482395</v>
+        <v>50.10870004823949</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26455,7 +26455,7 @@
         <v>3264</v>
       </c>
       <c r="B3264">
-        <v>25.04450283722073</v>
+        <v>25.04450283722072</v>
       </c>
     </row>
     <row r="3265" spans="1:2">
@@ -26583,7 +26583,7 @@
         <v>3280</v>
       </c>
       <c r="B3280">
-        <v>41.85171660499476</v>
+        <v>41.85171660499475</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>39.73222685339591</v>
+        <v>39.7322268533959</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>0.6494424909631545</v>
+        <v>0.6494424909631544</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>0.7854860671097511</v>
+        <v>0.785486067109751</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>1.049651509227928</v>
+        <v>1.049651509227927</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26863,7 +26863,7 @@
         <v>3315</v>
       </c>
       <c r="B3315">
-        <v>0.3561985403889991</v>
+        <v>0.356198540388999</v>
       </c>
     </row>
     <row r="3316" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>0.2783002583128135</v>
+        <v>0.2783002583128134</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -26911,7 +26911,7 @@
         <v>3321</v>
       </c>
       <c r="B3321">
-        <v>4.90753315659196</v>
+        <v>4.907533156591959</v>
       </c>
     </row>
     <row r="3322" spans="1:2">
@@ -27223,7 +27223,7 @@
         <v>3360</v>
       </c>
       <c r="B3360">
-        <v>0.7883610939990189</v>
+        <v>0.7883610939990188</v>
       </c>
     </row>
     <row r="3361" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>0.2602725795116382</v>
+        <v>0.2602725795116381</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>40.03262466802379</v>
+        <v>40.03262466802378</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>5.110690000592005</v>
+        <v>5.110690000592004</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27447,7 +27447,7 @@
         <v>3388</v>
       </c>
       <c r="B3388">
-        <v>0.2400577115489332</v>
+        <v>0.2400577115489331</v>
       </c>
     </row>
     <row r="3389" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>7.037251087440089</v>
+        <v>7.037251087440088</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>9.914622545017178</v>
+        <v>9.914622545017176</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>82.07073445360716</v>
+        <v>82.07073445360714</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>5.641236501880638</v>
+        <v>5.641236501880637</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>60.21261717712804</v>
+        <v>60.21261717712803</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>4.460189523179282</v>
+        <v>4.460189523179281</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>8.617841813148457</v>
+        <v>8.617841813148456</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28231,7 +28231,7 @@
         <v>3486</v>
       </c>
       <c r="B3486">
-        <v>8.199893204913513</v>
+        <v>8.199893204913511</v>
       </c>
     </row>
     <row r="3487" spans="1:2">
@@ -28407,7 +28407,7 @@
         <v>3508</v>
       </c>
       <c r="B3508">
-        <v>10.60738386620487</v>
+        <v>10.60738386620486</v>
       </c>
     </row>
     <row r="3509" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>58.07495702113219</v>
+        <v>58.07495702113218</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28559,7 +28559,7 @@
         <v>3527</v>
       </c>
       <c r="B3527">
-        <v>33.01884857078047</v>
+        <v>33.01884857078046</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>9.145047304596352</v>
+        <v>9.14504730459635</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28663,7 +28663,7 @@
         <v>3540</v>
       </c>
       <c r="B3540">
-        <v>62.7043071478268</v>
+        <v>62.70430714782679</v>
       </c>
     </row>
     <row r="3541" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>67.39813290302691</v>
+        <v>67.39813290302689</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28735,7 +28735,7 @@
         <v>3549</v>
       </c>
       <c r="B3549">
-        <v>46.6006397154632</v>
+        <v>46.60063971546319</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>7.233667297550923</v>
+        <v>7.233667297550922</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>58.95944541581213</v>
+        <v>58.95944541581212</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28887,7 +28887,7 @@
         <v>3568</v>
       </c>
       <c r="B3568">
-        <v>66.35626536058582</v>
+        <v>66.35626536058581</v>
       </c>
     </row>
     <row r="3569" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>95.78176992633954</v>
+        <v>95.78176992633952</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>35.67348603897494</v>
+        <v>35.67348603897493</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>51.25255631213473</v>
+        <v>51.25255631213472</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>73.19947411332824</v>
+        <v>73.19947411332822</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29175,7 +29175,7 @@
         <v>3604</v>
       </c>
       <c r="B3604">
-        <v>17.59633684647357</v>
+        <v>17.59633684647356</v>
       </c>
     </row>
     <row r="3605" spans="1:2">
@@ -29223,7 +29223,7 @@
         <v>3610</v>
       </c>
       <c r="B3610">
-        <v>50.49584689031114</v>
+        <v>50.49584689031113</v>
       </c>
     </row>
     <row r="3611" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>26.01149072928384</v>
+        <v>26.01149072928383</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29415,7 +29415,7 @@
         <v>3634</v>
       </c>
       <c r="B3634">
-        <v>43.50756797343136</v>
+        <v>43.50756797343135</v>
       </c>
     </row>
     <row r="3635" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>72.16024421023511</v>
+        <v>72.16024421023509</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>3.644045294715168</v>
+        <v>3.644045294715167</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>33.20758631967838</v>
+        <v>33.20758631967837</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29911,7 +29911,7 @@
         <v>3696</v>
       </c>
       <c r="B3696">
-        <v>9.812604516459164</v>
+        <v>9.812604516459162</v>
       </c>
     </row>
     <row r="3697" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>56.71979653836213</v>
+        <v>56.71979653836212</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30031,7 +30031,7 @@
         <v>3711</v>
       </c>
       <c r="B3711">
-        <v>62.99210290779224</v>
+        <v>62.99210290779223</v>
       </c>
     </row>
     <row r="3712" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>71.18666221980212</v>
+        <v>71.1866622198021</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30263,7 +30263,7 @@
         <v>3740</v>
       </c>
       <c r="B3740">
-        <v>53.50715181255646</v>
+        <v>53.50715181255645</v>
       </c>
     </row>
     <row r="3741" spans="1:2">
@@ -30271,7 +30271,7 @@
         <v>3741</v>
       </c>
       <c r="B3741">
-        <v>44.4527220731142</v>
+        <v>44.45272207311419</v>
       </c>
     </row>
     <row r="3742" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>38.62119454583075</v>
+        <v>38.62119454583074</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>60.91569459887661</v>
+        <v>60.9156945988766</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>77.8921275843737</v>
+        <v>77.89212758437368</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>78.94718332355454</v>
+        <v>78.94718332355453</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>92.77544721175146</v>
+        <v>92.77544721175144</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>41.56392084502932</v>
+        <v>41.56392084502931</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>55.41533734528048</v>
+        <v>55.41533734528047</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>73.61739341445931</v>
+        <v>73.6173934144593</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30655,7 +30655,7 @@
         <v>3789</v>
       </c>
       <c r="B3789">
-        <v>69.40361802058649</v>
+        <v>69.40361802058648</v>
       </c>
     </row>
     <row r="3790" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>43.89735245485095</v>
+        <v>43.89735245485094</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30695,7 +30695,7 @@
         <v>3794</v>
       </c>
       <c r="B3794">
-        <v>35.31711165596274</v>
+        <v>35.31711165596273</v>
       </c>
     </row>
     <row r="3795" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>55.84878941146061</v>
+        <v>55.8487894114606</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>56.36049144496332</v>
+        <v>56.36049144496331</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>54.83681511496298</v>
+        <v>54.83681511496297</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30839,7 +30839,7 @@
         <v>3812</v>
       </c>
       <c r="B3812">
-        <v>53.19385887222748</v>
+        <v>53.19385887222747</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>16.94636389693044</v>
+        <v>16.94636389693043</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -30887,7 +30887,7 @@
         <v>3818</v>
       </c>
       <c r="B3818">
-        <v>7.149145610000992</v>
+        <v>7.149145610000991</v>
       </c>
     </row>
     <row r="3819" spans="1:2">
@@ -30895,7 +30895,7 @@
         <v>3819</v>
       </c>
       <c r="B3819">
-        <v>5.168278459688959</v>
+        <v>5.168278459688958</v>
       </c>
     </row>
     <row r="3820" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>26.637812846007</v>
+        <v>26.63781284600699</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>33.90802610207899</v>
+        <v>33.90802610207898</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>6.625574199432498</v>
+        <v>6.625574199432497</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31135,7 +31135,7 @@
         <v>3849</v>
       </c>
       <c r="B3849">
-        <v>7.874584351999419</v>
+        <v>7.874584351999418</v>
       </c>
     </row>
     <row r="3850" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>88.02711024336034</v>
+        <v>88.02711024336033</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>21.71726733529848</v>
+        <v>21.71726733529847</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31255,7 +31255,7 @@
         <v>3864</v>
       </c>
       <c r="B3864">
-        <v>17.19380377487221</v>
+        <v>17.1938037748722</v>
       </c>
     </row>
     <row r="3865" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>1.006455768839633</v>
+        <v>1.006455768839632</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31399,7 +31399,7 @@
         <v>3882</v>
       </c>
       <c r="B3882">
-        <v>85.76665332216538</v>
+        <v>85.76665332216537</v>
       </c>
     </row>
     <row r="3883" spans="1:2">
@@ -31407,7 +31407,7 @@
         <v>3883</v>
       </c>
       <c r="B3883">
-        <v>63.82266623135849</v>
+        <v>63.82266623135848</v>
       </c>
     </row>
     <row r="3884" spans="1:2">
@@ -31415,7 +31415,7 @@
         <v>3884</v>
       </c>
       <c r="B3884">
-        <v>49.01320050572339</v>
+        <v>49.01320050572338</v>
       </c>
     </row>
     <row r="3885" spans="1:2">
@@ -31455,7 +31455,7 @@
         <v>3889</v>
       </c>
       <c r="B3889">
-        <v>22.74008526022657</v>
+        <v>22.74008526022656</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>1.423997008330838</v>
+        <v>1.423997008330837</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>62.3297623604176</v>
+        <v>62.32976236041759</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>32.48663156457147</v>
+        <v>32.48663156457146</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>15.71892377280899</v>
+        <v>15.71892377280898</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>61.98364546375855</v>
+        <v>61.98364546375854</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>73.15375503129707</v>
+        <v>73.15375503129705</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>80.00165292065806</v>
+        <v>80.00165292065805</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>56.57707094253405</v>
+        <v>56.57707094253404</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>83.87898276214766</v>
+        <v>83.87898276214764</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>83.95518123219961</v>
+        <v>83.95518123219959</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>54.86231229532652</v>
+        <v>54.86231229532651</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>34.81771860608381</v>
+        <v>34.8177186060838</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32383,7 +32383,7 @@
         <v>4005</v>
       </c>
       <c r="B4005">
-        <v>62.49827820764787</v>
+        <v>62.49827820764786</v>
       </c>
     </row>
     <row r="4006" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>30.03128240266672</v>
+        <v>30.03128240266671</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32487,7 +32487,7 @@
         <v>4018</v>
       </c>
       <c r="B4018">
-        <v>45.49488268659394</v>
+        <v>45.49488268659393</v>
       </c>
     </row>
     <row r="4019" spans="1:2">
@@ -32503,7 +32503,7 @@
         <v>4020</v>
       </c>
       <c r="B4020">
-        <v>57.47386832083777</v>
+        <v>57.47386832083776</v>
       </c>
     </row>
     <row r="4021" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>58.45712165554658</v>
+        <v>58.45712165554657</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32591,7 +32591,7 @@
         <v>4031</v>
       </c>
       <c r="B4031">
-        <v>42.75349619095572</v>
+        <v>42.75349619095571</v>
       </c>
     </row>
     <row r="4032" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>30.55206963836793</v>
+        <v>30.55206963836792</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32767,7 +32767,7 @@
         <v>4053</v>
       </c>
       <c r="B4053">
-        <v>76.94697348469086</v>
+        <v>76.94697348469084</v>
       </c>
     </row>
     <row r="4054" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>56.21043907316871</v>
+        <v>56.2104390731687</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32863,7 +32863,7 @@
         <v>4065</v>
       </c>
       <c r="B4065">
-        <v>48.99766774067434</v>
+        <v>48.99766774067433</v>
       </c>
     </row>
     <row r="4066" spans="1:2">
@@ -32991,7 +32991,7 @@
         <v>4081</v>
       </c>
       <c r="B4081">
-        <v>47.58154848186272</v>
+        <v>47.58154848186271</v>
       </c>
     </row>
     <row r="4082" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>54.52381524567267</v>
+        <v>54.52381524567266</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>59.85067444438128</v>
+        <v>59.85067444438127</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33223,7 +33223,7 @@
         <v>4110</v>
       </c>
       <c r="B4110">
-        <v>32.51945552090154</v>
+        <v>32.51945552090153</v>
       </c>
     </row>
     <row r="4111" spans="1:2">
@@ -33335,7 +33335,7 @@
         <v>4124</v>
       </c>
       <c r="B4124">
-        <v>71.09522405573978</v>
+        <v>71.09522405573976</v>
       </c>
     </row>
     <row r="4125" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>45.29588745134289</v>
+        <v>45.29588745134288</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33367,7 +33367,7 @@
         <v>4128</v>
       </c>
       <c r="B4128">
-        <v>43.51284325212726</v>
+        <v>43.51284325212725</v>
       </c>
     </row>
     <row r="4129" spans="1:2">
@@ -33407,7 +33407,7 @@
         <v>4133</v>
       </c>
       <c r="B4133">
-        <v>29.70245669728869</v>
+        <v>29.70245669728868</v>
       </c>
     </row>
     <row r="4134" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>75.7752754721228</v>
+        <v>75.77527547212279</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33591,7 +33591,7 @@
         <v>4156</v>
       </c>
       <c r="B4156">
-        <v>27.67718928461946</v>
+        <v>27.67718928461945</v>
       </c>
     </row>
     <row r="4157" spans="1:2">
@@ -33655,7 +33655,7 @@
         <v>4164</v>
       </c>
       <c r="B4164">
-        <v>66.33633652995685</v>
+        <v>66.33633652995684</v>
       </c>
     </row>
     <row r="4165" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>67.99482553774141</v>
+        <v>67.99482553774139</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>79.84603219912889</v>
+        <v>79.84603219912887</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33935,7 +33935,7 @@
         <v>4199</v>
       </c>
       <c r="B4199">
-        <v>62.8748744923277</v>
+        <v>62.87487449232769</v>
       </c>
     </row>
     <row r="4200" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>51.09986630099217</v>
+        <v>51.09986630099216</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>33.41889053855321</v>
+        <v>33.4188905385532</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>65.76543414664455</v>
+        <v>65.76543414664454</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>60.13876327538538</v>
+        <v>60.13876327538537</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>62.94902146510902</v>
+        <v>62.94902146510901</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>83.08153646595014</v>
+        <v>83.08153646595012</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>77.96363691780707</v>
+        <v>77.96363691780705</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34311,7 +34311,7 @@
         <v>4246</v>
       </c>
       <c r="B4246">
-        <v>57.55534206958562</v>
+        <v>57.55534206958561</v>
       </c>
     </row>
     <row r="4247" spans="1:2">
@@ -34343,7 +34343,7 @@
         <v>4250</v>
       </c>
       <c r="B4250">
-        <v>33.3347791504574</v>
+        <v>33.33477915045739</v>
       </c>
     </row>
     <row r="4251" spans="1:2">
@@ -34351,7 +34351,7 @@
         <v>4251</v>
       </c>
       <c r="B4251">
-        <v>30.65405835982208</v>
+        <v>30.65405835982207</v>
       </c>
     </row>
     <row r="4252" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>7.144984001252</v>
+        <v>7.144984001251999</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>42.20076421204042</v>
+        <v>42.20076421204041</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>60.36794482761855</v>
+        <v>60.36794482761854</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>56.04983614398229</v>
+        <v>56.04983614398228</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34479,7 +34479,7 @@
         <v>4267</v>
       </c>
       <c r="B4267">
-        <v>76.82183215118246</v>
+        <v>76.82183215118245</v>
       </c>
     </row>
     <row r="4268" spans="1:2">
@@ -34503,7 +34503,7 @@
         <v>4270</v>
       </c>
       <c r="B4270">
-        <v>49.83614398228445</v>
+        <v>49.83614398228444</v>
       </c>
     </row>
     <row r="4271" spans="1:2">
@@ -34519,7 +34519,7 @@
         <v>4272</v>
       </c>
       <c r="B4272">
-        <v>32.34888817640064</v>
+        <v>32.34888817640063</v>
       </c>
     </row>
     <row r="4273" spans="1:2">
@@ -34615,7 +34615,7 @@
         <v>4284</v>
       </c>
       <c r="B4284">
-        <v>52.68186376768611</v>
+        <v>52.6818637676861</v>
       </c>
     </row>
     <row r="4285" spans="1:2">
@@ -34631,7 +34631,7 @@
         <v>4286</v>
       </c>
       <c r="B4286">
-        <v>64.42023807918898</v>
+        <v>64.42023807918896</v>
       </c>
     </row>
     <row r="4287" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>67.95643323167677</v>
+        <v>67.95643323167675</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>75.36263144968763</v>
+        <v>75.36263144968761</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34687,7 +34687,7 @@
         <v>4293</v>
       </c>
       <c r="B4293">
-        <v>70.34085920222547</v>
+        <v>70.34085920222546</v>
       </c>
     </row>
     <row r="4294" spans="1:2">
@@ -34703,7 +34703,7 @@
         <v>4295</v>
       </c>
       <c r="B4295">
-        <v>50.50581130562562</v>
+        <v>50.50581130562561</v>
       </c>
     </row>
     <row r="4296" spans="1:2">
@@ -34871,7 +34871,7 @@
         <v>4316</v>
       </c>
       <c r="B4316">
-        <v>62.1462998902156</v>
+        <v>62.14629989021559</v>
       </c>
     </row>
     <row r="4317" spans="1:2">
@@ -34879,7 +34879,7 @@
         <v>4317</v>
       </c>
       <c r="B4317">
-        <v>54.27177415242391</v>
+        <v>54.2717741524239</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>46.66921833850995</v>
+        <v>46.66921833850994</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>49.28311893233049</v>
+        <v>49.28311893233048</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>88.77561367610141</v>
+        <v>88.7756136761014</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>37.90522199838108</v>
+        <v>37.90522199838107</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35095,7 +35095,7 @@
         <v>4344</v>
       </c>
       <c r="B4344">
-        <v>34.34118509722046</v>
+        <v>34.34118509722045</v>
       </c>
     </row>
     <row r="4345" spans="1:2">
@@ -35191,7 +35191,7 @@
         <v>4356</v>
       </c>
       <c r="B4356">
-        <v>43.04392959026911</v>
+        <v>43.0439295902691</v>
       </c>
     </row>
     <row r="4357" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>55.93788300721366</v>
+        <v>55.93788300721365</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35303,7 +35303,7 @@
         <v>4370</v>
       </c>
       <c r="B4370">
-        <v>37.37798719982932</v>
+        <v>37.37798719982931</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>7.02822449944932</v>
+        <v>7.028224499449319</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>88.57222237527044</v>
+        <v>88.57222237527043</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35607,7 +35607,7 @@
         <v>4408</v>
       </c>
       <c r="B4408">
-        <v>71.44690930213339</v>
+        <v>71.44690930213338</v>
       </c>
     </row>
     <row r="4409" spans="1:2">
@@ -35615,7 +35615,7 @@
         <v>4409</v>
       </c>
       <c r="B4409">
-        <v>65.01106929313025</v>
+        <v>65.01106929313023</v>
       </c>
     </row>
     <row r="4410" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>71.72708521509364</v>
+        <v>71.72708521509362</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35663,7 +35663,7 @@
         <v>4415</v>
       </c>
       <c r="B4415">
-        <v>52.29735456496243</v>
+        <v>52.29735456496242</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
@@ -35775,7 +35775,7 @@
         <v>4429</v>
       </c>
       <c r="B4429">
-        <v>27.37532611479828</v>
+        <v>27.37532611479827</v>
       </c>
     </row>
     <row r="4430" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>54.03438661110822</v>
+        <v>54.03438661110821</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35991,7 +35991,7 @@
         <v>4456</v>
       </c>
       <c r="B4456">
-        <v>78.85984815403346</v>
+        <v>78.85984815403344</v>
       </c>
     </row>
     <row r="4457" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>54.45728811989654</v>
+        <v>54.45728811989653</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36143,7 +36143,7 @@
         <v>4475</v>
       </c>
       <c r="B4475">
-        <v>71.09258641639182</v>
+        <v>71.09258641639181</v>
       </c>
     </row>
     <row r="4476" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>84.84728947388474</v>
+        <v>84.84728947388473</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36247,7 +36247,7 @@
         <v>4488</v>
       </c>
       <c r="B4488">
-        <v>52.51627863084245</v>
+        <v>52.51627863084244</v>
       </c>
     </row>
     <row r="4489" spans="1:2">
@@ -36263,7 +36263,7 @@
         <v>4490</v>
       </c>
       <c r="B4490">
-        <v>41.9560498947582</v>
+        <v>41.95604989475819</v>
       </c>
     </row>
     <row r="4491" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>76.44758043481193</v>
+        <v>76.44758043481191</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>94.56640432901094</v>
+        <v>94.56640432901092</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>89.42535216881362</v>
+        <v>89.4253521688136</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36439,7 +36439,7 @@
         <v>4512</v>
       </c>
       <c r="B4512">
-        <v>52.18510835715513</v>
+        <v>52.18510835715512</v>
       </c>
     </row>
     <row r="4513" spans="1:2">
@@ -36479,7 +36479,7 @@
         <v>4517</v>
       </c>
       <c r="B4517">
-        <v>32.94499466903781</v>
+        <v>32.9449946690378</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>65.27336787273215</v>
+        <v>65.27336787273214</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>74.5599098747942</v>
+        <v>74.55990987479419</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36639,7 +36639,7 @@
         <v>4537</v>
       </c>
       <c r="B4537">
-        <v>44.30999647728612</v>
+        <v>44.30999647728611</v>
       </c>
     </row>
     <row r="4538" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>35.2075030875034</v>
+        <v>35.20750308750339</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>62.18938133289881</v>
+        <v>62.1893813328988</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>37.81378383431874</v>
+        <v>37.81378383431873</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>31.53297840476745</v>
+        <v>31.53297840476744</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>74.98251831254386</v>
+        <v>74.98251831254385</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37183,7 +37183,7 @@
         <v>4605</v>
       </c>
       <c r="B4605">
-        <v>67.79289959210374</v>
+        <v>67.79289959210372</v>
       </c>
     </row>
     <row r="4606" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>58.09312742552919</v>
+        <v>58.09312742552918</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>20.51992560684755</v>
+        <v>20.51992560684754</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37455,7 +37455,7 @@
         <v>4639</v>
       </c>
       <c r="B4639">
-        <v>2.443555983309019</v>
+        <v>2.443555983309018</v>
       </c>
     </row>
     <row r="4640" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>6.381592559746928</v>
+        <v>6.381592559746927</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>21.7747092588761</v>
+        <v>21.77470925887609</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37503,7 +37503,7 @@
         <v>4645</v>
       </c>
       <c r="B4645">
-        <v>53.19122123287953</v>
+        <v>53.19122123287952</v>
       </c>
     </row>
     <row r="4646" spans="1:2">
@@ -37559,7 +37559,7 @@
         <v>4652</v>
       </c>
       <c r="B4652">
-        <v>78.61278926844194</v>
+        <v>78.61278926844193</v>
       </c>
     </row>
     <row r="4653" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>44.52686904589552</v>
+        <v>44.52686904589551</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37687,7 +37687,7 @@
         <v>4668</v>
       </c>
       <c r="B4668">
-        <v>57.89178762196885</v>
+        <v>57.89178762196884</v>
       </c>
     </row>
     <row r="4669" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>53.9124690590251</v>
+        <v>53.91246905902509</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>32.77940953219415</v>
+        <v>32.77940953219414</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -37895,7 +37895,7 @@
         <v>4694</v>
       </c>
       <c r="B4694">
-        <v>67.24309832357505</v>
+        <v>67.24309832357504</v>
       </c>
     </row>
     <row r="4695" spans="1:2">
@@ -38031,7 +38031,7 @@
         <v>4711</v>
       </c>
       <c r="B4711">
-        <v>8.136238175316269</v>
+        <v>8.136238175316267</v>
       </c>
     </row>
     <row r="4712" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>40.77643896414628</v>
+        <v>40.77643896414627</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>63.31037805577846</v>
+        <v>63.31037805577845</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38135,7 +38135,7 @@
         <v>4724</v>
       </c>
       <c r="B4724">
-        <v>79.18896693045015</v>
+        <v>79.18896693045014</v>
       </c>
     </row>
     <row r="4725" spans="1:2">
@@ -38151,7 +38151,7 @@
         <v>4726</v>
       </c>
       <c r="B4726">
-        <v>59.29296025780874</v>
+        <v>59.29296025780873</v>
       </c>
     </row>
     <row r="4727" spans="1:2">
@@ -38375,7 +38375,7 @@
         <v>4754</v>
       </c>
       <c r="B4754">
-        <v>44.11129431307373</v>
+        <v>44.11129431307372</v>
       </c>
     </row>
     <row r="4755" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>50.38125611419455</v>
+        <v>50.38125611419454</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>5.689095002494035</v>
+        <v>5.689095002494034</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>18.2739170878586</v>
+        <v>18.27391708785859</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>37.00080477307217</v>
+        <v>37.00080477307216</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38631,7 +38631,7 @@
         <v>4786</v>
       </c>
       <c r="B4786">
-        <v>60.26331846681645</v>
+        <v>60.26331846681644</v>
       </c>
     </row>
     <row r="4787" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>42.5269522780705</v>
+        <v>42.52695227807049</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38807,7 +38807,7 @@
         <v>4808</v>
       </c>
       <c r="B4808">
-        <v>32.83538610057847</v>
+        <v>32.83538610057846</v>
       </c>
     </row>
     <row r="4809" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>88.6279058726161</v>
+        <v>88.62790587261608</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38919,7 +38919,7 @@
         <v>4822</v>
       </c>
       <c r="B4822">
-        <v>84.84260033726616</v>
+        <v>84.84260033726615</v>
       </c>
     </row>
     <row r="4823" spans="1:2">
@@ -39023,7 +39023,7 @@
         <v>4835</v>
       </c>
       <c r="B4835">
-        <v>78.15237466670497</v>
+        <v>78.15237466670496</v>
       </c>
     </row>
     <row r="4836" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>62.74006181454348</v>
+        <v>62.74006181454347</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>42.56006930543923</v>
+        <v>42.56006930543922</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>53.459088162216</v>
+        <v>53.45908816221599</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39207,7 +39207,7 @@
         <v>4858</v>
       </c>
       <c r="B4858">
-        <v>82.19001436634233</v>
+        <v>82.19001436634231</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39303,7 +39303,7 @@
         <v>4870</v>
       </c>
       <c r="B4870">
-        <v>71.0442296950127</v>
+        <v>71.04422969501269</v>
       </c>
     </row>
     <row r="4871" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>60.31695046689148</v>
+        <v>60.31695046689147</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>86.6104048424714</v>
+        <v>86.61040484247138</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39687,7 +39687,7 @@
         <v>4918</v>
       </c>
       <c r="B4918">
-        <v>72.05561784943301</v>
+        <v>72.05561784943299</v>
       </c>
     </row>
     <row r="4919" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>38.9983769725879</v>
+        <v>38.99837697258789</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>57.27780379597333</v>
+        <v>57.27780379597332</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39831,7 +39831,7 @@
         <v>4936</v>
       </c>
       <c r="B4936">
-        <v>83.4821645758002</v>
+        <v>83.48216457580018</v>
       </c>
     </row>
     <row r="4937" spans="1:2">
@@ -39927,7 +39927,7 @@
         <v>4948</v>
       </c>
       <c r="B4948">
-        <v>35.76287270576665</v>
+        <v>35.76287270576664</v>
       </c>
     </row>
     <row r="4949" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>82.56221458544223</v>
+        <v>82.56221458544222</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>87.04883911630877</v>
+        <v>87.04883911630876</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40031,7 +40031,7 @@
         <v>4961</v>
       </c>
       <c r="B4961">
-        <v>66.17016525103587</v>
+        <v>66.17016525103585</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>49.73151762148235</v>
+        <v>49.73151762148234</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>32.66745639542552</v>
+        <v>32.66745639542551</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>91.83761988803516</v>
+        <v>91.83761988803514</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>49.40064041883369</v>
+        <v>49.40064041883368</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>55.86871824208958</v>
+        <v>55.86871824208957</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>59.47642272801074</v>
+        <v>59.47642272801073</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40423,7 +40423,7 @@
         <v>5010</v>
       </c>
       <c r="B5010">
-        <v>95.91218653854384</v>
+        <v>95.91218653854382</v>
       </c>
     </row>
     <row r="5011" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>32.32075335668915</v>
+        <v>32.32075335668914</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>26.13059479939581</v>
+        <v>26.1305947993958</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>70.10435087402577</v>
+        <v>70.10435087402576</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>7.372524355668668</v>
+        <v>7.372524355668667</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40991,7 +40991,7 @@
         <v>5081</v>
       </c>
       <c r="B5081">
-        <v>74.91159512118782</v>
+        <v>74.9115951211878</v>
       </c>
     </row>
     <row r="5082" spans="1:2">
@@ -41023,7 +41023,7 @@
         <v>5085</v>
       </c>
       <c r="B5085">
-        <v>60.12586814968428</v>
+        <v>60.12586814968427</v>
       </c>
     </row>
     <row r="5086" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>39.49513238311888</v>
+        <v>39.49513238311887</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>41.16886108491382</v>
+        <v>41.16886108491381</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41439,7 +41439,7 @@
         <v>5137</v>
       </c>
       <c r="B5137">
-        <v>42.81973024569318</v>
+        <v>42.81973024569317</v>
       </c>
     </row>
     <row r="5138" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>43.67315311027502</v>
+        <v>43.67315311027501</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>64.85075943498249</v>
+        <v>64.85075943498248</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41591,7 +41591,7 @@
         <v>5156</v>
       </c>
       <c r="B5156">
-        <v>77.54835525602394</v>
+        <v>77.54835525602392</v>
       </c>
     </row>
     <row r="5157" spans="1:2">
@@ -41631,7 +41631,7 @@
         <v>5161</v>
       </c>
       <c r="B5161">
-        <v>44.42751796378932</v>
+        <v>44.42751796378931</v>
       </c>
     </row>
     <row r="5162" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>7.107881207757473</v>
+        <v>7.107881207757472</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>42.24384565472364</v>
+        <v>42.24384565472363</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41743,7 +41743,7 @@
         <v>5175</v>
       </c>
       <c r="B5175">
-        <v>95.08426085432554</v>
+        <v>95.08426085432552</v>
       </c>
     </row>
     <row r="5176" spans="1:2">
@@ -41815,7 +41815,7 @@
         <v>5184</v>
       </c>
       <c r="B5184">
-        <v>57.6116117090086</v>
+        <v>57.61161170900859</v>
       </c>
     </row>
     <row r="5185" spans="1:2">
@@ -41895,7 +41895,7 @@
         <v>5194</v>
       </c>
       <c r="B5194">
-        <v>42.83233230035562</v>
+        <v>42.83233230035561</v>
       </c>
     </row>
     <row r="5195" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>51.83869838945742</v>
+        <v>51.83869838945741</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41935,7 +41935,7 @@
         <v>5199</v>
       </c>
       <c r="B5199">
-        <v>50.03220850714889</v>
+        <v>50.03220850714888</v>
       </c>
     </row>
     <row r="5200" spans="1:2">
@@ -41983,7 +41983,7 @@
         <v>5205</v>
       </c>
       <c r="B5205">
-        <v>38.40197740891206</v>
+        <v>38.40197740891205</v>
       </c>
     </row>
     <row r="5206" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>10.69055742697696</v>
+        <v>10.69055742697695</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>33.28144022142104</v>
+        <v>33.28144022142103</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>79.57318306213517</v>
+        <v>79.57318306213516</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42215,7 +42215,7 @@
         <v>5234</v>
       </c>
       <c r="B5234">
-        <v>6.39158628216528</v>
+        <v>6.391586282165279</v>
       </c>
     </row>
     <row r="5235" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>17.57312562021159</v>
+        <v>17.57312562021158</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>51.6986104329773</v>
+        <v>51.69861043297729</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42415,7 +42415,7 @@
         <v>5259</v>
       </c>
       <c r="B5259">
-        <v>8.41524180412187</v>
+        <v>8.415241804121868</v>
       </c>
     </row>
     <row r="5260" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>25.45530051211234</v>
+        <v>25.45530051211233</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>51.36744015928998</v>
+        <v>51.36744015928997</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>56.07533332434583</v>
+        <v>56.07533332434582</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42607,7 +42607,7 @@
         <v>5283</v>
       </c>
       <c r="B5283">
-        <v>11.68650073765981</v>
+        <v>11.6865007376598</v>
       </c>
     </row>
     <row r="5284" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>40.96253907369624</v>
+        <v>40.96253907369623</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42679,7 +42679,7 @@
         <v>5292</v>
       </c>
       <c r="B5292">
-        <v>53.77238110254498</v>
+        <v>53.77238110254497</v>
       </c>
     </row>
     <row r="5293" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>72.70477020006788</v>
+        <v>72.70477020006787</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>6.351142478830014</v>
+        <v>6.351142478830013</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>33.2559430410575</v>
+        <v>33.25594304105749</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>58.18485866063019</v>
+        <v>58.18485866063018</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42911,7 +42911,7 @@
         <v>5321</v>
       </c>
       <c r="B5321">
-        <v>62.65301971606106</v>
+        <v>62.65301971606105</v>
       </c>
     </row>
     <row r="5322" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>57.3364180037056</v>
+        <v>57.33641800370559</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>65.83694348007792</v>
+        <v>65.83694348007791</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43135,7 +43135,7 @@
         <v>5349</v>
       </c>
       <c r="B5349">
-        <v>59.92218377781465</v>
+        <v>59.92218377781464</v>
       </c>
     </row>
     <row r="5350" spans="1:2">
@@ -43167,7 +43167,7 @@
         <v>5353</v>
       </c>
       <c r="B5353">
-        <v>34.27993325014024</v>
+        <v>34.27993325014023</v>
       </c>
     </row>
     <row r="5354" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>26.29374744661858</v>
+        <v>26.29374744661857</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>74.64138362354205</v>
+        <v>74.64138362354204</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43327,7 +43327,7 @@
         <v>5373</v>
       </c>
       <c r="B5373">
-        <v>64.90439143505752</v>
+        <v>64.90439143505751</v>
       </c>
     </row>
     <row r="5374" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>39.00072154089719</v>
+        <v>39.00072154089718</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43407,7 +43407,7 @@
         <v>5383</v>
       </c>
       <c r="B5383">
-        <v>6.052034176772246</v>
+        <v>6.052034176772245</v>
       </c>
     </row>
     <row r="5384" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>65.87006050744665</v>
+        <v>65.87006050744664</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>78.02195805450067</v>
+        <v>78.02195805450066</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>66.328423611913</v>
+        <v>66.32842361191298</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43519,7 +43519,7 @@
         <v>5397</v>
       </c>
       <c r="B5397">
-        <v>83.8915848168101</v>
+        <v>83.89158481681008</v>
       </c>
     </row>
     <row r="5398" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>41.86461173069586</v>
+        <v>41.86461173069585</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>71.41320613268734</v>
+        <v>71.41320613268732</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>45.76978332085828</v>
+        <v>45.76978332085827</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -44071,7 +44071,7 @@
         <v>5466</v>
       </c>
       <c r="B5466">
-        <v>60.5874550355759</v>
+        <v>60.58745503557589</v>
       </c>
     </row>
     <row r="5467" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>2.270145849733101</v>
+        <v>2.2701458497331</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>8.314747744964894</v>
+        <v>8.314747744964892</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>99.9498262381812</v>
+        <v>99.94982623818116</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>6.80440614722365</v>
+        <v>6.804406147223649</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>58.84690613696617</v>
+        <v>58.84690613696616</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>54.34533498312791</v>
+        <v>54.3453349831279</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>35.26846186354496</v>
+        <v>35.26846186354495</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>64.8097294895699</v>
+        <v>64.80972948956989</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45039,7 +45039,7 @@
         <v>5587</v>
       </c>
       <c r="B5587">
-        <v>75.99126882761621</v>
+        <v>75.9912688276162</v>
       </c>
     </row>
     <row r="5588" spans="1:2">
@@ -45047,7 +45047,7 @@
         <v>5588</v>
       </c>
       <c r="B5588">
-        <v>63.26465897374729</v>
+        <v>63.26465897374728</v>
       </c>
     </row>
     <row r="5589" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>17.2587190099357</v>
+        <v>17.25871900993569</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>45.46440329857316</v>
+        <v>45.46440329857315</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>35.33235134997313</v>
+        <v>35.33235134997312</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45287,7 +45287,7 @@
         <v>5618</v>
       </c>
       <c r="B5618">
-        <v>11.02287067771506</v>
+        <v>11.02287067771505</v>
       </c>
     </row>
     <row r="5619" spans="1:2">
@@ -45383,7 +45383,7 @@
         <v>5630</v>
       </c>
       <c r="B5630">
-        <v>54.3787450815353</v>
+        <v>54.37874508153529</v>
       </c>
     </row>
     <row r="5631" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>57.00290316170899</v>
+        <v>57.00290316170898</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>49.55860570867216</v>
+        <v>49.55860570867215</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45447,7 +45447,7 @@
         <v>5638</v>
       </c>
       <c r="B5638">
-        <v>32.89927558700664</v>
+        <v>32.89927558700663</v>
       </c>
     </row>
     <row r="5639" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>6.990535563877471</v>
+        <v>6.99053556387747</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>51.40026411562005</v>
+        <v>51.40026411562004</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45679,7 +45679,7 @@
         <v>5667</v>
       </c>
       <c r="B5667">
-        <v>9.412064327920705</v>
+        <v>9.412064327920699</v>
       </c>
     </row>
     <row r="5668" spans="1:2">
@@ -45727,7 +45727,7 @@
         <v>5673</v>
       </c>
       <c r="B5673">
-        <v>13.1630512446434</v>
+        <v>13.16305124464339</v>
       </c>
     </row>
     <row r="5674" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>67.67361967936857</v>
+        <v>67.67361967936856</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>59.48668021436389</v>
+        <v>59.48668021436388</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>4.821985720406713</v>
+        <v>4.821985720406712</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -46007,7 +46007,7 @@
         <v>5708</v>
       </c>
       <c r="B5708">
-        <v>71.85691568522061</v>
+        <v>71.8569156852206</v>
       </c>
     </row>
     <row r="5709" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>40.35353745535796</v>
+        <v>40.35353745535795</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>5.995530080518337</v>
+        <v>5.995530080518336</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46215,7 +46215,7 @@
         <v>5734</v>
       </c>
       <c r="B5734">
-        <v>56.20780143382076</v>
+        <v>56.20780143382075</v>
       </c>
     </row>
     <row r="5735" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>75.30372417091669</v>
+        <v>75.30372417091668</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46415,7 +46415,7 @@
         <v>5759</v>
       </c>
       <c r="B5759">
-        <v>55.26264733413792</v>
+        <v>55.26264733413791</v>
       </c>
     </row>
     <row r="5760" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>51.84104295776671</v>
+        <v>51.8410429577667</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -46775,7 +46775,7 @@
         <v>5804</v>
       </c>
       <c r="B5804">
-        <v>55.21927282041604</v>
+        <v>55.21927282041603</v>
       </c>
     </row>
     <row r="5805" spans="1:2">
@@ -46791,7 +46791,7 @@
         <v>5806</v>
       </c>
       <c r="B5806">
-        <v>38.86590886311297</v>
+        <v>38.86590886311296</v>
       </c>
     </row>
     <row r="5807" spans="1:2">
@@ -46799,7 +46799,7 @@
         <v>5807</v>
       </c>
       <c r="B5807">
-        <v>29.21305736982811</v>
+        <v>29.2130573698281</v>
       </c>
     </row>
     <row r="5808" spans="1:2">
@@ -46927,7 +46927,7 @@
         <v>5823</v>
       </c>
       <c r="B5823">
-        <v>60.10564624801665</v>
+        <v>60.10564624801664</v>
       </c>
     </row>
     <row r="5824" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>24.7323821810464</v>
+        <v>24.73238218104639</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>76.02966113368085</v>
+        <v>76.02966113368083</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47215,7 +47215,7 @@
         <v>5859</v>
       </c>
       <c r="B5859">
-        <v>28.41297343428264</v>
+        <v>28.41297343428263</v>
       </c>
     </row>
     <row r="5860" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>80.10364164211221</v>
+        <v>80.10364164211219</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>95.06638352096719</v>
+        <v>95.06638352096718</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47367,7 +47367,7 @@
         <v>5878</v>
       </c>
       <c r="B5878">
-        <v>59.0051644978433</v>
+        <v>59.00516449784329</v>
       </c>
     </row>
     <row r="5879" spans="1:2">
@@ -47439,7 +47439,7 @@
         <v>5887</v>
       </c>
       <c r="B5887">
-        <v>2.330946367413784</v>
+        <v>2.330946367413783</v>
       </c>
     </row>
     <row r="5888" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>0.7072419612079451</v>
+        <v>0.707241961207945</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47855,7 +47855,7 @@
         <v>5939</v>
       </c>
       <c r="B5939">
-        <v>24.18762173438269</v>
+        <v>24.18762173438268</v>
       </c>
     </row>
     <row r="5940" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>37.2378992433492</v>
+        <v>37.23789924334919</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>43.41612980936902</v>
+        <v>43.41612980936901</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>76.47542218348475</v>
+        <v>76.47542218348474</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -47935,7 +47935,7 @@
         <v>5949</v>
       </c>
       <c r="B5949">
-        <v>35.34260883632628</v>
+        <v>35.34260883632627</v>
       </c>
     </row>
     <row r="5950" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>0.6842681224872823</v>
+        <v>0.6842681224872822</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48119,7 +48119,7 @@
         <v>5972</v>
       </c>
       <c r="B5972">
-        <v>47.60704566222626</v>
+        <v>47.60704566222625</v>
       </c>
     </row>
     <row r="5973" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>2.485670291564654</v>
+        <v>2.485670291564653</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48271,7 +48271,7 @@
         <v>5991</v>
       </c>
       <c r="B5991">
-        <v>78.60282485312746</v>
+        <v>78.60282485312744</v>
       </c>
     </row>
     <row r="5992" spans="1:2">
@@ -48295,7 +48295,7 @@
         <v>5994</v>
       </c>
       <c r="B5994">
-        <v>93.22384590090331</v>
+        <v>93.2238459009033</v>
       </c>
     </row>
     <row r="5995" spans="1:2">
@@ -48311,7 +48311,7 @@
         <v>5996</v>
       </c>
       <c r="B5996">
-        <v>67.61002326397906</v>
+        <v>67.61002326397904</v>
       </c>
     </row>
     <row r="5997" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>35.44694212608972</v>
+        <v>35.44694212608971</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48359,7 +48359,7 @@
         <v>6002</v>
       </c>
       <c r="B6002">
-        <v>31.34336144275356</v>
+        <v>31.34336144275355</v>
       </c>
     </row>
     <row r="6003" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>63.68023370656908</v>
+        <v>63.68023370656907</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48511,7 +48511,7 @@
         <v>6021</v>
       </c>
       <c r="B6021">
-        <v>53.77970787851151</v>
+        <v>53.7797078785115</v>
       </c>
     </row>
     <row r="6022" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>18.59591423803582</v>
+        <v>18.59591423803581</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>39.11560538805244</v>
+        <v>39.11560538805243</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48687,7 +48687,7 @@
         <v>6043</v>
       </c>
       <c r="B6043">
-        <v>59.1097908586454</v>
+        <v>59.10979085864539</v>
       </c>
     </row>
     <row r="6044" spans="1:2">
@@ -48703,7 +48703,7 @@
         <v>6045</v>
       </c>
       <c r="B6045">
-        <v>42.28722016844552</v>
+        <v>42.28722016844551</v>
       </c>
     </row>
     <row r="6046" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>32.64195921506198</v>
+        <v>32.64195921506197</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48847,7 +48847,7 @@
         <v>6063</v>
       </c>
       <c r="B6063">
-        <v>33.92326579608938</v>
+        <v>33.92326579608937</v>
       </c>
     </row>
     <row r="6064" spans="1:2">
@@ -48919,7 +48919,7 @@
         <v>6072</v>
       </c>
       <c r="B6072">
-        <v>28.05443032558434</v>
+        <v>28.05443032558433</v>
       </c>
     </row>
     <row r="6073" spans="1:2">
@@ -48935,7 +48935,7 @@
         <v>6074</v>
       </c>
       <c r="B6074">
-        <v>18.56051125656553</v>
+        <v>18.56051125656552</v>
       </c>
     </row>
     <row r="6075" spans="1:2">
@@ -49063,7 +49063,7 @@
         <v>6090</v>
       </c>
       <c r="B6090">
-        <v>86.51838053633173</v>
+        <v>86.51838053633172</v>
       </c>
     </row>
     <row r="6091" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>53.95584357274698</v>
+        <v>53.95584357274697</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49263,7 +49263,7 @@
         <v>6115</v>
       </c>
       <c r="B6115">
-        <v>70.89593574945006</v>
+        <v>70.89593574945005</v>
       </c>
     </row>
     <row r="6116" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>44.63354690396825</v>
+        <v>44.63354690396824</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>46.23371477505919</v>
+        <v>46.23371477505918</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49799,7 +49799,7 @@
         <v>6182</v>
       </c>
       <c r="B6182">
-        <v>48.39159683272268</v>
+        <v>48.39159683272267</v>
       </c>
     </row>
     <row r="6183" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>46.46553396664032</v>
+        <v>46.46553396664031</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49831,7 +49831,7 @@
         <v>6186</v>
       </c>
       <c r="B6186">
-        <v>76.16007774588515</v>
+        <v>76.16007774588513</v>
       </c>
     </row>
     <row r="6187" spans="1:2">
@@ -49847,7 +49847,7 @@
         <v>6188</v>
       </c>
       <c r="B6188">
-        <v>43.04422266130777</v>
+        <v>43.04422266130776</v>
       </c>
     </row>
     <row r="6189" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>53.73369572544168</v>
+        <v>53.73369572544167</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -49983,7 +49983,7 @@
         <v>6205</v>
       </c>
       <c r="B6205">
-        <v>69.16388591096151</v>
+        <v>69.1638859109615</v>
       </c>
     </row>
     <row r="6206" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>36.4888096685308</v>
+        <v>36.48880966853079</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>29.29667053715819</v>
+        <v>29.29667053715818</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>43.83903131815734</v>
+        <v>43.83903131815733</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50271,7 +50271,7 @@
         <v>6241</v>
       </c>
       <c r="B6241">
-        <v>31.79293241606006</v>
+        <v>31.79293241606005</v>
       </c>
     </row>
     <row r="6242" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>1.977731290198357</v>
+        <v>1.977731290198356</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50327,7 +50327,7 @@
         <v>6248</v>
       </c>
       <c r="B6248">
-        <v>5.890933026820104</v>
+        <v>5.890933026820103</v>
       </c>
     </row>
     <row r="6249" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>27.26724151573997</v>
+        <v>27.26724151573996</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>55.81567238409188</v>
+        <v>55.81567238409187</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>33.2430479153564</v>
+        <v>33.24304791535639</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50439,7 +50439,7 @@
         <v>6262</v>
       </c>
       <c r="B6262">
-        <v>29.7789482383793</v>
+        <v>29.77894823837929</v>
       </c>
     </row>
     <row r="6263" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>10.56362836013273</v>
+        <v>10.56362836013272</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>73.92013579739648</v>
+        <v>73.92013579739647</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50615,7 +50615,7 @@
         <v>6284</v>
       </c>
       <c r="B6284">
-        <v>62.04460423980011</v>
+        <v>62.0446042398001</v>
       </c>
     </row>
     <row r="6285" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>55.74181848234922</v>
+        <v>55.74181848234921</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>32.29291160801632</v>
+        <v>32.29291160801631</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>28.45980618626072</v>
+        <v>28.45980618626071</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50711,7 +50711,7 @@
         <v>6296</v>
       </c>
       <c r="B6296">
-        <v>6.155576174731299</v>
+        <v>6.155576174731298</v>
       </c>
     </row>
     <row r="6297" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>48.27407534621948</v>
+        <v>48.27407534621947</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>7.53104648048059</v>
+        <v>7.531046480480589</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>5.202714306731667</v>
+        <v>5.202714306731666</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>4.306356534985942</v>
+        <v>4.306356534985941</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>41.41855760985329</v>
+        <v>41.41855760985328</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>41.43643494321163</v>
+        <v>41.43643494321162</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>54.58741166106218</v>
+        <v>54.58741166106217</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>8.48279467853331</v>
+        <v>8.482794678533308</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51031,7 +51031,7 @@
         <v>6336</v>
       </c>
       <c r="B6336">
-        <v>4.721257204418809</v>
+        <v>4.721257204418808</v>
       </c>
     </row>
     <row r="6337" spans="1:2">
@@ -51087,7 +51087,7 @@
         <v>6343</v>
       </c>
       <c r="B6343">
-        <v>0.3737388420528806</v>
+        <v>0.3737388420528805</v>
       </c>
     </row>
     <row r="6344" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>6.561069263823136</v>
+        <v>6.561069263823135</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>7.870188286419499</v>
+        <v>7.870188286419498</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51255,7 +51255,7 @@
         <v>6364</v>
       </c>
       <c r="B6364">
-        <v>3.624878448786716</v>
+        <v>3.624878448786715</v>
       </c>
     </row>
     <row r="6365" spans="1:2">
@@ -51263,7 +51263,7 @@
         <v>6365</v>
       </c>
       <c r="B6365">
-        <v>3.126892139893358</v>
+        <v>3.126892139893357</v>
       </c>
     </row>
     <row r="6366" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>15.95320476111487</v>
+        <v>15.95320476111486</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>11.39551050337296</v>
+        <v>11.39551050337295</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.9103313988690976</v>
+        <v>0.9103313988690974</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51551,7 +51551,7 @@
         <v>6401</v>
       </c>
       <c r="B6401">
-        <v>6.855576350573922</v>
+        <v>6.855576350573921</v>
       </c>
     </row>
     <row r="6402" spans="1:2">
@@ -51711,7 +51711,7 @@
         <v>6421</v>
       </c>
       <c r="B6421">
-        <v>7.833759556313894</v>
+        <v>7.833759556313893</v>
       </c>
     </row>
     <row r="6422" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>0.5395027522301241</v>
+        <v>0.539502752230124</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>42.77401116366201</v>
+        <v>42.774011163662</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>6.084594369167521</v>
+        <v>6.08459436916752</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52247,7 +52247,7 @@
         <v>6488</v>
       </c>
       <c r="B6488">
-        <v>0.9802874557975608</v>
+        <v>0.9802874557975606</v>
       </c>
     </row>
     <row r="6489" spans="1:2">
@@ -52447,7 +52447,7 @@
         <v>6513</v>
       </c>
       <c r="B6513">
-        <v>5.948873171163452</v>
+        <v>5.948873171163451</v>
       </c>
     </row>
     <row r="6514" spans="1:2">
@@ -52495,7 +52495,7 @@
         <v>6519</v>
       </c>
       <c r="B6519">
-        <v>58.0907828572199</v>
+        <v>58.09078285721989</v>
       </c>
     </row>
     <row r="6520" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>38.42513002096631</v>
+        <v>38.4251300209663</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>65.47265617902187</v>
+        <v>65.47265617902185</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>49.14332404688903</v>
+        <v>49.14332404688902</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>8.617079828447938</v>
+        <v>8.617079828447936</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>32.89400030831074</v>
+        <v>32.89400030831073</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>4.459515459790361</v>
+        <v>4.45951545979036</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>3.039586277476143</v>
+        <v>3.039586277476142</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>56.75525813404015</v>
+        <v>56.75525813404014</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>63.04075270021002</v>
+        <v>63.04075270021001</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>63.8938824937532</v>
+        <v>63.89388249375319</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -53079,7 +53079,7 @@
         <v>6592</v>
       </c>
       <c r="B6592">
-        <v>59.39993118692013</v>
+        <v>59.39993118692012</v>
       </c>
     </row>
     <row r="6593" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>71.4006040780249</v>
+        <v>71.40060407802488</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>56.88010639650988</v>
+        <v>56.88010639650987</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>0.8714789712737631</v>
+        <v>0.8714789712737629</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53543,7 +53543,7 @@
         <v>6650</v>
       </c>
       <c r="B6650">
-        <v>9.609887279017112</v>
+        <v>9.60988727901711</v>
       </c>
     </row>
     <row r="6651" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>4.362450331785723</v>
+        <v>4.362450331785722</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53767,7 +53767,7 @@
         <v>6678</v>
       </c>
       <c r="B6678">
-        <v>20.77973308262083</v>
+        <v>20.77973308262082</v>
       </c>
     </row>
     <row r="6679" spans="1:2">
@@ -53799,7 +53799,7 @@
         <v>6682</v>
       </c>
       <c r="B6682">
-        <v>1.296244411867971</v>
+        <v>1.29624441186797</v>
       </c>
     </row>
     <row r="6683" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>0.933785874093165</v>
+        <v>0.9337858740931648</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>0.4262161422355811</v>
+        <v>0.426216142235581</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -54047,7 +54047,7 @@
         <v>6713</v>
       </c>
       <c r="B6713">
-        <v>17.40088777079032</v>
+        <v>17.40088777079031</v>
       </c>
     </row>
     <row r="6714" spans="1:2">
@@ -54159,7 +54159,7 @@
         <v>6727</v>
       </c>
       <c r="B6727">
-        <v>0.2782941038210016</v>
+        <v>0.2782941038210015</v>
       </c>
     </row>
     <row r="6728" spans="1:2">
@@ -54207,7 +54207,7 @@
         <v>6733</v>
       </c>
       <c r="B6733">
-        <v>28.57662430227113</v>
+        <v>28.57662430227112</v>
       </c>
     </row>
     <row r="6734" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>2.939854203019688</v>
+        <v>2.939854203019687</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>0.8641697795695491</v>
+        <v>0.864169779569549</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>19.36762889703888</v>
+        <v>19.36762889703887</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>6.795350252129016</v>
+        <v>6.795350252129015</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>2.418829579777161</v>
+        <v>2.41882957977716</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>0.7268835822190285</v>
+        <v>0.7268835822190284</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>0.1948400740649129</v>
+        <v>0.1948400740649128</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>51.26046923017859</v>
+        <v>51.26046923017858</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>6.389681320413981</v>
+        <v>6.38968132041398</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54839,7 +54839,7 @@
         <v>6812</v>
       </c>
       <c r="B6812">
-        <v>39.63785797894696</v>
+        <v>39.63785797894695</v>
       </c>
     </row>
     <row r="6813" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>3.759720433674801</v>
+        <v>3.7597204336748</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>75.12758847668123</v>
+        <v>75.12758847668121</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>8.580152877576609</v>
+        <v>8.580152877576607</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>5.947261280450815</v>
+        <v>5.947261280450814</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55343,7 +55343,7 @@
         <v>6875</v>
       </c>
       <c r="B6875">
-        <v>7.499160351474236</v>
+        <v>7.499160351474235</v>
       </c>
     </row>
     <row r="6876" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>0.5597041389250507</v>
+        <v>0.5597041389250506</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55519,7 +55519,7 @@
         <v>6897</v>
       </c>
       <c r="B6897">
-        <v>10.45129423101384</v>
+        <v>10.45129423101383</v>
       </c>
     </row>
     <row r="6898" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>45.26804570267006</v>
+        <v>45.26804570267005</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>47.76471788102606</v>
+        <v>47.76471788102605</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>6.271104778171601</v>
+        <v>6.2711047781716</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>18.26231147472761</v>
+        <v>18.2623114747276</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>4.96567845066237</v>
+        <v>4.965678450662369</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -56007,7 +56007,7 @@
         <v>6958</v>
       </c>
       <c r="B6958">
-        <v>6.419750408980635</v>
+        <v>6.419750408980634</v>
       </c>
     </row>
     <row r="6959" spans="1:2">
@@ -56063,7 +56063,7 @@
         <v>6965</v>
       </c>
       <c r="B6965">
-        <v>0.7607127722117075</v>
+        <v>0.7607127722117074</v>
       </c>
     </row>
     <row r="6966" spans="1:2">
@@ -56087,7 +56087,7 @@
         <v>6968</v>
       </c>
       <c r="B6968">
-        <v>0.9820019213737295</v>
+        <v>0.9820019213737294</v>
       </c>
     </row>
     <row r="6969" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>4.93209250963178</v>
+        <v>4.932092509631779</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>0.2602271535006457</v>
+        <v>0.2602271535006456</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>17.50442976874937</v>
+        <v>17.50442976874936</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56807,7 +56807,7 @@
         <v>7058</v>
       </c>
       <c r="B7058">
-        <v>5.808902443098793</v>
+        <v>5.808902443098792</v>
       </c>
     </row>
     <row r="7059" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>4.984903910798555</v>
+        <v>4.984903910798554</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>4.382437776622427</v>
+        <v>4.382437776622426</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>4.267143630013054</v>
+        <v>4.267143630013053</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56847,7 +56847,7 @@
         <v>7063</v>
       </c>
       <c r="B7063">
-        <v>0.665505714592183</v>
+        <v>0.6655057145921829</v>
       </c>
     </row>
     <row r="7064" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>39.61734300624066</v>
+        <v>39.61734300624065</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57111,7 +57111,7 @@
         <v>7096</v>
       </c>
       <c r="B7096">
-        <v>47.18150651408998</v>
+        <v>47.18150651408997</v>
       </c>
     </row>
     <row r="7097" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>66.64435419158993</v>
+        <v>66.64435419158991</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>48.55688889852768</v>
+        <v>48.55688889852767</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57191,7 +57191,7 @@
         <v>7106</v>
       </c>
       <c r="B7106">
-        <v>17.92463502398201</v>
+        <v>17.924635023982</v>
       </c>
     </row>
     <row r="7107" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>16.29167250366486</v>
+        <v>16.29167250366485</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>65.41374890025094</v>
+        <v>65.41374890025092</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>49.43111980685447</v>
+        <v>49.43111980685446</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57319,7 +57319,7 @@
         <v>7122</v>
       </c>
       <c r="B7122">
-        <v>76.6767619870451</v>
+        <v>76.67676198704508</v>
       </c>
     </row>
     <row r="7123" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>38.20093067639038</v>
+        <v>38.20093067639037</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>6.913164809670876</v>
+        <v>6.913164809670875</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>1.05377794945228</v>
+        <v>1.053777949452279</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57839,7 +57839,7 @@
         <v>7187</v>
       </c>
       <c r="B7187">
-        <v>14.53148784546482</v>
+        <v>14.53148784546481</v>
       </c>
     </row>
     <row r="7188" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>4.896015464772569</v>
+        <v>4.896015464772568</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -57903,7 +57903,7 @@
         <v>7195</v>
       </c>
       <c r="B7195">
-        <v>9.285867938673128</v>
+        <v>9.285867938673126</v>
       </c>
     </row>
     <row r="7196" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>0.9965646212848118</v>
+        <v>0.9965646212848116</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>0.2386421784321989</v>
+        <v>0.2386421784321988</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>25.06958971813014</v>
+        <v>25.06958971813013</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>6.961404302634533</v>
+        <v>6.961404302634532</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>7.642589317795098</v>
+        <v>7.642589317795097</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58127,7 +58127,7 @@
         <v>7223</v>
       </c>
       <c r="B7223">
-        <v>0.6910644398738389</v>
+        <v>0.6910644398738388</v>
       </c>
     </row>
     <row r="7224" spans="1:2">
@@ -58143,7 +58143,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>0.4646963696118157</v>
+        <v>0.4646963696118156</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>8.791017489893447</v>
+        <v>8.791017489893445</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>16.28636791786509</v>
+        <v>16.28636791786508</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>27.81733585530732</v>
+        <v>27.81733585530731</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>7.51694976352098</v>
+        <v>7.516949763520979</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>5.070363425672203</v>
+        <v>5.070363425672202</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58351,7 +58351,7 @@
         <v>7251</v>
       </c>
       <c r="B7251">
-        <v>0.9295011755079362</v>
+        <v>0.929501175507936</v>
       </c>
     </row>
     <row r="7252" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>38.46088468768299</v>
+        <v>38.46088468768298</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>4.280273212545082</v>
+        <v>4.280273212545081</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>1.25167709901874</v>
+        <v>1.251677099018739</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>29.72033403064703</v>
+        <v>29.72033403064702</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>31.28328187982798</v>
+        <v>31.28328187982797</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>6.350761486479755</v>
+        <v>6.350761486479754</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>3.132607025147254</v>
+        <v>3.132607025147253</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>34.63425613588181</v>
+        <v>34.6342561358818</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>0.4778904277723495</v>
+        <v>0.4778904277723494</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>1.567953502521291</v>
+        <v>1.56795350252129</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59447,7 +59447,7 @@
         <v>7388</v>
       </c>
       <c r="B7388">
-        <v>12.87698460380606</v>
+        <v>12.87698460380605</v>
       </c>
     </row>
     <row r="7389" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>7.671603350622571</v>
+        <v>7.67160335062257</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59511,7 +59511,7 @@
         <v>7396</v>
       </c>
       <c r="B7396">
-        <v>0.8768070027566263</v>
+        <v>0.8768070027566262</v>
       </c>
     </row>
     <row r="7397" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>20.98224517033582</v>
+        <v>20.98224517033581</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>8.672470254754932</v>
+        <v>8.672470254754931</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>7.816321829513544</v>
+        <v>7.816321829513543</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>0.1752875466495826</v>
+        <v>0.1752875466495825</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>0.1041788413260644</v>
+        <v>0.1041788413260643</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>2.621854541809808</v>
+        <v>2.621854541809807</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60087,7 +60087,7 @@
         <v>7468</v>
       </c>
       <c r="B7468">
-        <v>1.086068516491987</v>
+        <v>1.086068516491986</v>
       </c>
     </row>
     <row r="7469" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>0.5359595233727085</v>
+        <v>0.5359595233727084</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>5.626289878908909</v>
+        <v>5.626289878908908</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>0.8159332173162782</v>
+        <v>0.8159332173162781</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>5.386968068738054</v>
+        <v>5.386968068738053</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60551,7 +60551,7 @@
         <v>7526</v>
       </c>
       <c r="B7526">
-        <v>28.51182629562311</v>
+        <v>28.5118262956231</v>
       </c>
     </row>
     <row r="7527" spans="1:2">
@@ -60607,7 +60607,7 @@
         <v>7533</v>
       </c>
       <c r="B7533">
-        <v>6.955220503718779</v>
+        <v>6.955220503718778</v>
       </c>
     </row>
     <row r="7534" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>0.6366968314917727</v>
+        <v>0.6366968314917726</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>5.781412379672359</v>
+        <v>5.781412379672358</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>27.38634558585194</v>
+        <v>27.38634558585193</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>0.2657609208526492</v>
+        <v>0.2657609208526491</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>1.965454544388833</v>
+        <v>1.965454544388832</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>0.1808072465917304</v>
+        <v>0.1808072465917303</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>0.931579049172045</v>
+        <v>0.9315790491720448</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>0.5624472838469209</v>
+        <v>0.5624472838469208</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>0.6220198338756125</v>
+        <v>0.6220198338756124</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>1.062323900939645</v>
+        <v>1.062323900939644</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>0.1590602032389039</v>
+        <v>0.1590602032389038</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>3.178707099528684</v>
+        <v>3.178707099528683</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>0.1357812775669946</v>
+        <v>0.1357812775669945</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>4.684711245897739</v>
+        <v>4.684711245897738</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>2.284210328878459</v>
+        <v>2.284210328878458</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>0.1147091768162052</v>
+        <v>0.1147091768162051</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>15.25698520167098</v>
+        <v>15.25698520167097</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>9.07060726077637</v>
+        <v>9.070607260776368</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62159,7 +62159,7 @@
         <v>7727</v>
       </c>
       <c r="B7727">
-        <v>0.3867013740928719</v>
+        <v>0.3867013740928718</v>
       </c>
     </row>
     <row r="7728" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>0.0670608081375277</v>
+        <v>0.0670608081375276</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>0.3432154933763015</v>
+        <v>0.3432154933763014</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63255,7 +63255,7 @@
         <v>7864</v>
       </c>
       <c r="B7864">
-        <v>5.766172685661969</v>
+        <v>5.766172685661968</v>
       </c>
     </row>
     <row r="7865" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>0.3523153491267363</v>
+        <v>0.3523153491267362</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63327,7 +63327,7 @@
         <v>7873</v>
       </c>
       <c r="B7873">
-        <v>0.0866429357277628</v>
+        <v>0.0866429357277627</v>
       </c>
     </row>
     <row r="7874" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>0.108570217769366</v>
+        <v>0.1085702177693659</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>0.2110386965138028</v>
+        <v>0.2110386965138027</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>0.7850054306063465</v>
+        <v>0.7850054306063464</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>0.2371401893590595</v>
+        <v>0.2371401893590594</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>5.483652204392432</v>
+        <v>5.483652204392431</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>7.041529924604546</v>
+        <v>7.041529924604545</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>0.6575078059471149</v>
+        <v>0.6575078059471148</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>0.6862580748397928</v>
+        <v>0.6862580748397927</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64047,7 +64047,7 @@
         <v>7963</v>
       </c>
       <c r="B7963">
-        <v>6.697523139423859</v>
+        <v>6.697523139423858</v>
       </c>
     </row>
     <row r="7964" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>2.460469112950165</v>
+        <v>2.460469112950164</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>0.5989170438979387</v>
+        <v>0.5989170438979385</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>0.1608130611211374</v>
+        <v>0.1608130611211373</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>4.028613111646585</v>
+        <v>4.028613111646584</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>0.4816329449360549</v>
+        <v>0.4816329449360548</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>0.2927806052620319</v>
+        <v>0.2927806052620318</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>39.97899266794876</v>
+        <v>39.97899266794875</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64671,7 +64671,7 @@
         <v>8041</v>
       </c>
       <c r="B8041">
-        <v>0.3848403729973724</v>
+        <v>0.3848403729973723</v>
       </c>
     </row>
     <row r="8042" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>0.1280228079605128</v>
+        <v>0.1280228079605127</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64743,7 +64743,7 @@
         <v>8050</v>
       </c>
       <c r="B8050">
-        <v>6.539469928273794</v>
+        <v>6.539469928273793</v>
       </c>
     </row>
     <row r="8051" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>36.18313657520702</v>
+        <v>36.18313657520701</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64775,7 +64775,7 @@
         <v>8054</v>
       </c>
       <c r="B8054">
-        <v>37.77040932059686</v>
+        <v>37.77040932059685</v>
       </c>
     </row>
     <row r="8055" spans="1:2">
@@ -64807,7 +64807,7 @@
         <v>8058</v>
       </c>
       <c r="B8058">
-        <v>3.059808179143776</v>
+        <v>3.059808179143775</v>
       </c>
     </row>
     <row r="8059" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>4.55596513861381</v>
+        <v>4.555965138613809</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>40.23396447158413</v>
+        <v>40.23396447158412</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>31.69211597876056</v>
+        <v>31.69211597876055</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>3.16039015961235</v>
+        <v>3.160390159612349</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>2.618390442132831</v>
+        <v>2.61839044213283</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>0.4444246458676105</v>
+        <v>0.4444246458676104</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>1.642683686669547</v>
+        <v>1.642683686669546</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>26.88563371629904</v>
+        <v>26.88563371629903</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>0.6037204782215981</v>
+        <v>0.603720478221598</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>7.440663372157431</v>
+        <v>7.44066337215743</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>20.15660544021908</v>
+        <v>20.15660544021907</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>43.17639769974404</v>
+        <v>43.17639769974403</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>57.59373437565026</v>
+        <v>57.59373437565025</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65551,7 +65551,7 @@
         <v>8151</v>
       </c>
       <c r="B8151">
-        <v>57.12745835314006</v>
+        <v>57.12745835314005</v>
       </c>
     </row>
     <row r="8152" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>43.23501190747631</v>
+        <v>43.2350119074763</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>7.371088307579228</v>
+        <v>7.371088307579227</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>4.328571319716472</v>
+        <v>4.328571319716471</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>1.906265917420788</v>
+        <v>1.906265917420787</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>0.3424242015719159</v>
+        <v>0.3424242015719158</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>0.2055477175334438</v>
+        <v>0.2055477175334437</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>2.278697662641239</v>
+        <v>2.278697662641238</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>3.496689176476244</v>
+        <v>3.496689176476243</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>0.8484728947388475</v>
+        <v>0.8484728947388473</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>0.3646800162478584</v>
+        <v>0.3646800162478583</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>0.135465053916279</v>
+        <v>0.1354650539162789</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>9.020931719723272</v>
+        <v>9.02093171972327</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>7.013658868827851</v>
+        <v>7.01365886882785</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67103,7 +67103,7 @@
         <v>8345</v>
       </c>
       <c r="B8345">
-        <v>0.3109307877573677</v>
+        <v>0.3109307877573676</v>
       </c>
     </row>
     <row r="8346" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>2.065942742125035</v>
+        <v>2.065942742125034</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>26.59408664703873</v>
+        <v>26.59408664703872</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>15.40413617018284</v>
+        <v>15.40413617018283</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67295,7 +67295,7 @@
         <v>8369</v>
       </c>
       <c r="B8369">
-        <v>2.937568248918129</v>
+        <v>2.937568248918128</v>
       </c>
     </row>
     <row r="8370" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>0.1545187744238077</v>
+        <v>0.1545187744238076</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67855,7 +67855,7 @@
         <v>8439</v>
       </c>
       <c r="B8439">
-        <v>14.45323787814224</v>
+        <v>14.45323787814223</v>
       </c>
     </row>
     <row r="8440" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>0.2080921602911016</v>
+        <v>0.2080921602911015</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>5.969065765727218</v>
+        <v>5.969065765727217</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>12.95901518752737</v>
+        <v>12.95901518752736</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>0.34183219807382</v>
+        <v>0.3418321980738199</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>0.2996475527689059</v>
+        <v>0.2996475527689058</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>21.45863214367984</v>
+        <v>21.45863214367983</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>0.6085268432556442</v>
+        <v>0.6085268432556441</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>0.295969511233706</v>
+        <v>0.2959695112337059</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>0.6206687763873837</v>
+        <v>0.6206687763873836</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>0.07357431197177609</v>
+        <v>0.073574311971776</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>1.674558092834355</v>
+        <v>1.674558092834354</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69207,7 +69207,7 @@
         <v>8608</v>
       </c>
       <c r="B8608">
-        <v>6.234676048065995</v>
+        <v>6.234676048065994</v>
       </c>
     </row>
     <row r="8609" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>0.2125427370842128</v>
+        <v>0.2125427370842127</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>7.037837229517412</v>
+        <v>7.037837229517411</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
